--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_159.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_159.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,448 +488,474 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_238</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(90.6, 101.18), (42.44, 44.36)]</t>
+          <t>[['B:dim7', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(25.48, 32.58), (74.1, 80.04)]</t>
+          <t>[('0:00:15.120000', '0:00:16.420000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:30.076213', '0:00:37.274399')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4444444444444444</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C', 'F', 'C', 'F', 'C', 'F', 'G', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[['C/3', 'F', 'C/3', 'F', 'C/5', 'F/3', 'G/3', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:00:16.179070', '0:00:34.801473')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:02:13.449451', '0:02:18.803650')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(3.44, 7.08)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[('0:03:46.020000', '0:04:01.060000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:00:21.080000', '0:00:24.960000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(12.02, 25.14), (65.9, 72.44)]</t>
+          <t>[['F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42), (29.5, 31.64)]</t>
+          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:43.680000', '0:00:45.800000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (13.48, 20.96)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86), (0.78, 5.98)]</t>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:27', '0:00:49.860000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(36.04, 51.46)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(7.14, 30.18)]</t>
+          <t>[('0:00:00.360000', '0:00:05.600000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06361746361746362</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:min', 'C:min'], ['C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(13.648526, 21.12535), (1.129708, 6.12526)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(94.8, 106.96), (40.82, 43.62)]</t>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:51.920000', '0:01:55.660000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(41.92, 59.04)]</t>
+          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(9.56, 32.44)]</t>
+          <t>[('0:01:21.100000', '0:01:27.580000'), ('0:00:27.460000', '0:00:36.020000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:02.580000', '0:00:05.020000'), ('0:00:00.220000', '0:00:03.440000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:06.300000', '0:01:53.780000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:00:05.460000', '0:02:06.860000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>isophonics_72</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1277173913043478</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
+          <t>[['D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(3.34, 6.82)]</t>
+          <t>[('0:00:32.074829', '0:00:37.705668')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:41.080000', '0:00:43.260000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -933,272 +964,220 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:01:28.860000', '0:01:37.740000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:34.060000', '0:01:45.580000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07542426147077311</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[('0:00:15.620000', '0:00:58.080000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:00:16.320000', '0:01:01.580000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02), (13.98, 21.5)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66), (0.78, 5.26)]</t>
+          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(78.32, 99.6)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(88.18, 109.56)]</t>
+          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(16.84, 21.54)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(70.06, 87.32)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
